--- a/xlsx/美国历史年表_intext.xlsx
+++ b/xlsx/美国历史年表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t>美国历史年表</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国历史</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国历史年表</t>
+    <t>政策_政策_美国_美国历史年表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Prehistory_of_the_United_States</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_women_in_the_United_States</t>
@@ -227,19 +227,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2_(1865%E5%B9%B4-1918%E5%B9%B4)</t>
@@ -293,13 +290,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%B2%B8%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>次貸危機</t>
+    <t>次贷危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%BB%A8</t>
   </si>
   <si>
-    <t>聯邦黨</t>
+    <t>联邦党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%85%9A</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>香蕉戰爭</t>
+    <t>香蕉战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -491,19 +488,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>美國歷史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國歷史年表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美國經濟史</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1848,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1886,10 +1874,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1915,10 +1903,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1944,10 +1932,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1973,10 +1961,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2002,10 +1990,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2031,10 +2019,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2118,10 +2106,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2147,10 +2135,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2176,10 +2164,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2205,10 +2193,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2234,10 +2222,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2263,10 +2251,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2292,10 +2280,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2321,10 +2309,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2350,10 +2338,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2379,10 +2367,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2408,10 +2396,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2437,10 +2425,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2466,10 +2454,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2495,10 +2483,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2524,10 +2512,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2553,10 +2541,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2582,10 +2570,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2611,10 +2599,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2640,10 +2628,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2669,10 +2657,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2698,10 +2686,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2727,10 +2715,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2785,10 +2773,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2814,10 +2802,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2843,10 +2831,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2872,10 +2860,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2901,10 +2889,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2930,10 +2918,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2959,10 +2947,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2988,10 +2976,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3017,10 +3005,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3046,10 +3034,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3075,10 +3063,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3104,10 +3092,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3133,10 +3121,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3162,10 +3150,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3191,10 +3179,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3220,10 +3208,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -3249,10 +3237,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>10</v>
@@ -3278,10 +3266,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
